--- a/spliced/struggle/2023-03-25_18-15-57/gyroscope_selected.xlsx
+++ b/spliced/struggle/2023-03-25_18-15-57/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2273945808410644</v>
+        <v>1.058934926986694</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.2698497176170349</v>
+        <v>-1.520596265792847</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1383609771728515</v>
+        <v>-2.644282817840576</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0363464802503585</v>
+        <v>3.271336078643799</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3313944041728973</v>
+        <v>-1.098488450050354</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0897971913218498</v>
+        <v>-2.443155527114868</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.4106541574001312</v>
+        <v>-2.085494041442871</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.056657750159502</v>
+        <v>-0.6218608021736145</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2814561724662781</v>
+        <v>-1.758833765983582</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.9619600176811218</v>
+        <v>-6.340017795562744</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.937817215919494</v>
+        <v>0.8550586104393005</v>
       </c>
       <c r="C5" t="n">
-        <v>7.913911819458008</v>
+        <v>4.873482704162598</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.3434589803218841</v>
+        <v>-5.074305057525635</v>
       </c>
       <c r="B6" t="n">
-        <v>3.390607595443726</v>
+        <v>1.213025689125061</v>
       </c>
       <c r="C6" t="n">
-        <v>0.375987559556961</v>
+        <v>-1.407586216926575</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.119410514831543</v>
+        <v>-0.499840497970581</v>
       </c>
       <c r="B7" t="n">
-        <v>2.83074951171875</v>
+        <v>1.082911372184753</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.3765984177589416</v>
+        <v>-0.4966334402561188</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.8074111342430115</v>
+        <v>-1.038776397705078</v>
       </c>
       <c r="B8" t="n">
-        <v>3.911217451095581</v>
+        <v>4.970457553863525</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.377793073654175</v>
+        <v>-1.859473824501038</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.511891484260559</v>
+        <v>-1.67560338973999</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.4399756789207458</v>
+        <v>1.536020636558533</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.3031418919563293</v>
+        <v>-2.598315238952637</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.278832912445068</v>
+        <v>2.161241292953491</v>
       </c>
       <c r="B10" t="n">
-        <v>2.483930826187134</v>
+        <v>1.872912883758545</v>
       </c>
       <c r="C10" t="n">
-        <v>1.397812366485596</v>
+        <v>-0.7365507483482361</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-1.15514612197876</v>
+        <v>0.3984368443489074</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.145816802978516</v>
+        <v>0.0755945742130279</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.822682797908783</v>
+        <v>-0.2574796974658966</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.450485944747925</v>
+        <v>-1.350317597389221</v>
       </c>
       <c r="B12" t="n">
-        <v>-7.262271404266357</v>
+        <v>0.328340083360672</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.97888445854187</v>
+        <v>0.2541199326515198</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.4721988439559936</v>
+        <v>2.818379640579224</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.870927572250366</v>
+        <v>-2.691624879837036</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.492177486419678</v>
+        <v>2.749962568283081</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.058934926986694</v>
+        <v>1.895667552947998</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.520596265792847</v>
+        <v>-2.188882827758789</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.644282817840576</v>
+        <v>-0.0742201283574104</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3.271336078643799</v>
+        <v>0.1685988008975982</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.098488450050354</v>
+        <v>-1.522581577301025</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.443155527114868</v>
+        <v>0.997542917728424</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-2.085494041442871</v>
+        <v>0.164170041680336</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.6218608021736145</v>
+        <v>-3.341738224029541</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.758833765983582</v>
+        <v>0.8228355050086975</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-6.340017795562744</v>
+        <v>0.7200574278831482</v>
       </c>
       <c r="B17" t="n">
-        <v>0.8550586104393005</v>
+        <v>-2.653293132781982</v>
       </c>
       <c r="C17" t="n">
-        <v>4.873482704162598</v>
+        <v>-0.8017606139183044</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-5.074305057525635</v>
+        <v>-0.3216205537319183</v>
       </c>
       <c r="B18" t="n">
-        <v>1.213025689125061</v>
+        <v>-0.1701259762048721</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.407586216926575</v>
+        <v>0.732122004032135</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.499840497970581</v>
+        <v>-4.379751205444336</v>
       </c>
       <c r="B19" t="n">
-        <v>1.082911372184753</v>
+        <v>0.5068654417991638</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.4966334402561188</v>
+        <v>1.012203693389893</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-1.038776397705078</v>
+        <v>-2.21698260307312</v>
       </c>
       <c r="B20" t="n">
-        <v>4.970457553863525</v>
+        <v>-1.410029649734497</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.859473824501038</v>
+        <v>-0.8793405294418335</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-1.67560338973999</v>
+        <v>-0.2820670306682586</v>
       </c>
       <c r="B21" t="n">
-        <v>1.536020636558533</v>
+        <v>0.3074179291725158</v>
       </c>
       <c r="C21" t="n">
-        <v>-2.598315238952637</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2.161241292953491</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1.872912883758545</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.7365507483482361</v>
+        <v>-1.758681058883667</v>
       </c>
     </row>
   </sheetData>
